--- a/data_year/zb/能源/柴油平衡表.xlsx
+++ b/data_year/zb/能源/柴油平衡表.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U21"/>
+  <dimension ref="A1:U12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,1297 +538,716 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>227.7</v>
+        <v>43.83</v>
       </c>
       <c r="C2" t="n">
-        <v>3293.8</v>
-      </c>
-      <c r="D2" t="inlineStr"/>
+        <v>8657.560472142</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.78</v>
+      </c>
       <c r="E2" t="n">
-        <v>638.7</v>
+        <v>1287.1859522976</v>
       </c>
       <c r="F2" t="n">
-        <v>697.1</v>
+        <v>1206.73356676776</v>
       </c>
       <c r="G2" t="n">
-        <v>178.4</v>
+        <v>770.725532444308</v>
       </c>
       <c r="H2" t="n">
-        <v>1696.5</v>
+        <v>2089.991848531</v>
       </c>
       <c r="I2" t="n">
-        <v>1468.8</v>
+        <v>2046.16</v>
       </c>
       <c r="J2" t="n">
-        <v>205.9</v>
+        <v>490.20217792</v>
       </c>
       <c r="K2" t="n">
-        <v>95.90000000000001</v>
+        <v>196.60287024</v>
       </c>
       <c r="L2" t="n">
-        <v>77.5</v>
+        <v>490.24</v>
       </c>
       <c r="M2" t="n">
-        <v>6806.5</v>
+        <v>14701.86</v>
       </c>
       <c r="N2" t="n">
-        <v>0.3</v>
+        <v>2.86289026183294</v>
       </c>
       <c r="O2" t="n">
-        <v>-247.6</v>
+        <v>77.53</v>
       </c>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="n">
-        <v>7079.6</v>
+        <v>14924.38</v>
       </c>
       <c r="R2" t="n">
-        <v>6578.6</v>
+        <v>14655.1671097382</v>
       </c>
       <c r="S2" t="n">
-        <v>6806.2</v>
+        <v>14698.9971097382</v>
       </c>
       <c r="T2" t="n">
-        <v>51.9</v>
+        <v>190.19</v>
       </c>
       <c r="U2" t="n">
-        <v>227.7</v>
+        <v>40.05</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>240.39</v>
+        <v>41.57</v>
       </c>
       <c r="C3" t="n">
-        <v>3421</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
+        <v>9485.202572987229</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.35</v>
+      </c>
       <c r="E3" t="n">
-        <v>673.89</v>
+        <v>1428.07494014399</v>
       </c>
       <c r="F3" t="n">
-        <v>742.948</v>
+        <v>1271.89717937322</v>
       </c>
       <c r="G3" t="n">
-        <v>199.17</v>
+        <v>894.735080444985</v>
       </c>
       <c r="H3" t="n">
-        <v>1799.81</v>
+        <v>1824.25</v>
       </c>
       <c r="I3" t="n">
-        <v>1559.42</v>
+        <v>1782.68</v>
       </c>
       <c r="J3" t="n">
-        <v>223.08</v>
+        <v>518.63390423936</v>
       </c>
       <c r="K3" t="n">
-        <v>98.06999999999999</v>
+        <v>212.311439572176</v>
       </c>
       <c r="L3" t="n">
-        <v>46.86</v>
+        <v>228.79</v>
       </c>
       <c r="M3" t="n">
-        <v>7272.03</v>
+        <v>15626.24</v>
       </c>
       <c r="N3" t="n">
-        <v>114.062000000001</v>
+        <v>-8.866105352499289</v>
       </c>
       <c r="O3" t="n">
-        <v>-221.4</v>
+        <v>-78</v>
       </c>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="n">
-        <v>7485.6</v>
+        <v>15689.72</v>
       </c>
       <c r="R3" t="n">
-        <v>6917.578</v>
+        <v>15593.5361053525</v>
       </c>
       <c r="S3" t="n">
-        <v>7157.968</v>
+        <v>15635.1061053525</v>
       </c>
       <c r="T3" t="n">
-        <v>54.69</v>
+        <v>243.31</v>
       </c>
       <c r="U3" t="n">
-        <v>240.39</v>
+        <v>39.22</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>225.99</v>
+        <v>65.38</v>
       </c>
       <c r="C4" t="n">
-        <v>3664.81</v>
+        <v>10727.0295883105</v>
       </c>
       <c r="D4" t="n">
-        <v>3.08</v>
+        <v>2.38</v>
       </c>
       <c r="E4" t="n">
-        <v>740</v>
+        <v>1444.71951287347</v>
       </c>
       <c r="F4" t="n">
-        <v>819.0170000000001</v>
+        <v>1335.49203834188</v>
       </c>
       <c r="G4" t="n">
-        <v>213.92</v>
+        <v>964.091168486211</v>
       </c>
       <c r="H4" t="n">
-        <v>1876.33</v>
+        <v>1747.7</v>
       </c>
       <c r="I4" t="n">
-        <v>1650.34</v>
+        <v>1682.32</v>
       </c>
       <c r="J4" t="n">
-        <v>241.99</v>
+        <v>518.011543554273</v>
       </c>
       <c r="K4" t="n">
-        <v>110.79</v>
+        <v>228.999118722549</v>
       </c>
       <c r="L4" t="n">
-        <v>144.69</v>
+        <v>205.69</v>
       </c>
       <c r="M4" t="n">
-        <v>7722.33</v>
+        <v>16966.93</v>
       </c>
       <c r="N4" t="n">
-        <v>55.473</v>
+        <v>0.88497513803668</v>
       </c>
       <c r="O4" t="n">
-        <v>82.2</v>
+        <v>8.940000000000049</v>
       </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="n">
-        <v>7706.1</v>
+        <v>17063.81</v>
       </c>
       <c r="R4" t="n">
-        <v>7440.867</v>
+        <v>16900.665024862</v>
       </c>
       <c r="S4" t="n">
-        <v>7666.857</v>
+        <v>16966.045024862</v>
       </c>
       <c r="T4" t="n">
-        <v>78.72</v>
+        <v>99.87</v>
       </c>
       <c r="U4" t="n">
-        <v>225.99</v>
+        <v>35.63</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>271.28</v>
+        <v>43.89</v>
       </c>
       <c r="C5" t="n">
-        <v>4135.2</v>
+        <v>10920.5348494671</v>
       </c>
       <c r="D5" t="n">
-        <v>2.85</v>
+        <v>2.61</v>
       </c>
       <c r="E5" t="n">
-        <v>790</v>
+        <v>1339.75664711138</v>
       </c>
       <c r="F5" t="n">
-        <v>939.08</v>
+        <v>1441.53010618622</v>
       </c>
       <c r="G5" t="n">
-        <v>247.89</v>
+        <v>982.467542677833</v>
       </c>
       <c r="H5" t="n">
-        <v>1915.50597161421</v>
+        <v>1675.88</v>
       </c>
       <c r="I5" t="n">
-        <v>1644.23</v>
+        <v>1631.99</v>
       </c>
       <c r="J5" t="n">
-        <v>276.23</v>
+        <v>556.966011629554</v>
       </c>
       <c r="K5" t="n">
-        <v>105.53</v>
+        <v>233.510401361383</v>
       </c>
       <c r="L5" t="n">
-        <v>244.4</v>
+        <v>294.44</v>
       </c>
       <c r="M5" t="n">
-        <v>8467.52</v>
+        <v>17105.9</v>
       </c>
       <c r="N5" t="n">
-        <v>58.0799999999999</v>
+        <v>-44.7435693662737</v>
       </c>
       <c r="O5" t="n">
-        <v>67.5</v>
+        <v>89.36999999999991</v>
       </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="n">
-        <v>8532.780000000001</v>
+        <v>17275.71</v>
       </c>
       <c r="R5" t="n">
-        <v>8138.16</v>
+        <v>17106.7535693663</v>
       </c>
       <c r="S5" t="n">
-        <v>8409.440000000001</v>
+        <v>17150.6435693663</v>
       </c>
       <c r="T5" t="n">
-        <v>111.64</v>
+        <v>35.26</v>
       </c>
       <c r="U5" t="n">
-        <v>271.28</v>
+        <v>35.59</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>334.92</v>
+        <v>38.3</v>
       </c>
       <c r="C6" t="n">
-        <v>4985.24</v>
+        <v>11042.8</v>
       </c>
       <c r="D6" t="n">
-        <v>9.630000000000001</v>
+        <v>4.7</v>
       </c>
       <c r="E6" t="n">
-        <v>918</v>
+        <v>1268.7</v>
       </c>
       <c r="F6" t="n">
-        <v>1092.012324</v>
+        <v>1492</v>
       </c>
       <c r="G6" t="n">
-        <v>373.668095</v>
+        <v>984.4</v>
       </c>
       <c r="H6" t="n">
-        <v>2084.82</v>
+        <v>1595.3</v>
       </c>
       <c r="I6" t="n">
-        <v>1749.9</v>
+        <v>1557</v>
       </c>
       <c r="J6" t="n">
-        <v>333.13</v>
+        <v>552</v>
       </c>
       <c r="K6" t="n">
-        <v>108.992105</v>
+        <v>230.1</v>
       </c>
       <c r="L6" t="n">
-        <v>86.65000000000001</v>
+        <v>423.9</v>
       </c>
       <c r="M6" t="n">
-        <v>9948.43</v>
+        <v>17172.9</v>
       </c>
       <c r="N6" t="n">
-        <v>52.5674759999984</v>
+        <v>7.6</v>
       </c>
       <c r="O6" t="n">
-        <v>-112.4</v>
+        <v>-93.7</v>
       </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="n">
-        <v>9843.6</v>
+        <v>17635.3</v>
       </c>
       <c r="R6" t="n">
-        <v>9560.942524</v>
+        <v>17127</v>
       </c>
       <c r="S6" t="n">
-        <v>9895.862524</v>
+        <v>17165.3</v>
       </c>
       <c r="T6" t="n">
-        <v>303.88</v>
+        <v>55</v>
       </c>
       <c r="U6" t="n">
-        <v>334.92</v>
+        <v>25.8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>85.5</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>6169.4</v>
+        <v>11162.8</v>
       </c>
       <c r="D7" t="n">
-        <v>3.6</v>
+        <v>6.2</v>
       </c>
       <c r="E7" t="n">
-        <v>900.1</v>
+        <v>1384.2</v>
       </c>
       <c r="F7" t="n">
-        <v>1286.3</v>
+        <v>1492.9</v>
       </c>
       <c r="G7" t="n">
-        <v>406.4</v>
+        <v>990.7</v>
       </c>
       <c r="H7" t="n">
-        <v>1710</v>
+        <v>1516.4</v>
       </c>
       <c r="I7" t="n">
-        <v>1624.5</v>
+        <v>1436.5</v>
       </c>
       <c r="J7" t="n">
-        <v>386.6</v>
+        <v>555.7</v>
       </c>
       <c r="K7" t="n">
-        <v>116</v>
+        <v>257.7</v>
       </c>
       <c r="L7" t="n">
-        <v>170.9</v>
+        <v>731.3</v>
       </c>
       <c r="M7" t="n">
-        <v>10972.6</v>
+        <v>17353.6</v>
       </c>
       <c r="N7" t="n">
-        <v>-2.4</v>
+        <v>-6.7</v>
       </c>
       <c r="O7" t="n">
-        <v>-7.7</v>
+        <v>5.5</v>
       </c>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="n">
-        <v>11090.2</v>
+        <v>18007.9</v>
       </c>
       <c r="R7" t="n">
-        <v>10889.4</v>
+        <v>17280.4</v>
       </c>
       <c r="S7" t="n">
-        <v>10974.9</v>
+        <v>17360.3</v>
       </c>
       <c r="T7" t="n">
-        <v>61</v>
+        <v>71.5</v>
       </c>
       <c r="U7" t="n">
-        <v>81.90000000000001</v>
+        <v>22.4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>312.719198</v>
+        <v>102.7</v>
       </c>
       <c r="C8" t="n">
-        <v>6547.3215</v>
+        <v>11068.5</v>
       </c>
       <c r="D8" t="n">
-        <v>3.22</v>
+        <v>6.1</v>
       </c>
       <c r="E8" t="n">
-        <v>932.96</v>
+        <v>1307.2</v>
       </c>
       <c r="F8" t="n">
-        <v>1365.5303828</v>
+        <v>1495.9</v>
       </c>
       <c r="G8" t="n">
-        <v>469.594</v>
+        <v>761.3</v>
       </c>
       <c r="H8" t="n">
-        <v>1961.58392559434</v>
+        <v>1412.9</v>
       </c>
       <c r="I8" t="n">
-        <v>1648.86</v>
+        <v>1310.3</v>
       </c>
       <c r="J8" t="n">
-        <v>428.667768</v>
+        <v>561.3</v>
       </c>
       <c r="K8" t="n">
-        <v>129.7727</v>
+        <v>232</v>
       </c>
       <c r="L8" t="n">
-        <v>102.58</v>
+        <v>1556.9</v>
       </c>
       <c r="M8" t="n">
-        <v>11836.0823</v>
+        <v>16765.2</v>
       </c>
       <c r="N8" t="n">
-        <v>0.656751200001963</v>
+        <v>-73.90000000000001</v>
       </c>
       <c r="O8" t="n">
-        <v>95.59</v>
+        <v>288.3</v>
       </c>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="n">
-        <v>11762.4</v>
+        <v>17917.7</v>
       </c>
       <c r="R8" t="n">
-        <v>11522.7063508</v>
+        <v>16736.4</v>
       </c>
       <c r="S8" t="n">
-        <v>11835.4255488</v>
+        <v>16839</v>
       </c>
       <c r="T8" t="n">
-        <v>80.67</v>
+        <v>116.1</v>
       </c>
       <c r="U8" t="n">
-        <v>312.719198</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>231.4128</v>
+        <v>194.1</v>
       </c>
       <c r="C9" t="n">
-        <v>7184.3644</v>
+        <v>11173.7</v>
       </c>
       <c r="D9" t="n">
-        <v>6.17</v>
+        <v>5.9</v>
       </c>
       <c r="E9" t="n">
-        <v>1007.4808</v>
+        <v>1233.3</v>
       </c>
       <c r="F9" t="n">
-        <v>1218.971</v>
+        <v>1546.8</v>
       </c>
       <c r="G9" t="n">
-        <v>545.315863</v>
+        <v>673</v>
       </c>
       <c r="H9" t="n">
-        <v>1972.783</v>
+        <v>1459.9</v>
       </c>
       <c r="I9" t="n">
-        <v>1741.37</v>
+        <v>1265.8</v>
       </c>
       <c r="J9" t="n">
-        <v>433.81404</v>
+        <v>596.1</v>
       </c>
       <c r="K9" t="n">
-        <v>133.9378</v>
+        <v>233.8</v>
       </c>
       <c r="L9" t="n">
-        <v>93.25</v>
+        <v>1736.8</v>
       </c>
       <c r="M9" t="n">
-        <v>12494.219</v>
+        <v>16994.5</v>
       </c>
       <c r="N9" t="n">
-        <v>-2.447702999998</v>
+        <v>78</v>
       </c>
       <c r="O9" t="n">
-        <v>54.699</v>
+        <v>-44.2</v>
       </c>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="n">
-        <v>12359.11</v>
+        <v>18667.9</v>
       </c>
       <c r="R9" t="n">
-        <v>12265.253903</v>
+        <v>16722.4</v>
       </c>
       <c r="S9" t="n">
-        <v>12496.666703</v>
+        <v>16916.5</v>
       </c>
       <c r="T9" t="n">
-        <v>173.66</v>
+        <v>107.6</v>
       </c>
       <c r="U9" t="n">
-        <v>231.4128</v>
+        <v>23.9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.13024</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>7649.3053028</v>
+        <v>11166.9</v>
       </c>
       <c r="D10" t="n">
-        <v>4.4</v>
+        <v>5.2</v>
       </c>
       <c r="E10" t="n">
-        <v>1151.803688</v>
+        <v>1107.4</v>
       </c>
       <c r="F10" t="n">
-        <v>1098.8742264</v>
+        <v>1468.2</v>
       </c>
       <c r="G10" t="n">
-        <v>592.07647562</v>
+        <v>652.3</v>
       </c>
       <c r="H10" t="n">
-        <v>2517.0164596</v>
+        <v>1259.5</v>
       </c>
       <c r="I10" t="n">
-        <v>2331.89</v>
+        <v>1189.9</v>
       </c>
       <c r="J10" t="n">
-        <v>370.79</v>
+        <v>543.4</v>
       </c>
       <c r="K10" t="n">
-        <v>152.72</v>
+        <v>211.8</v>
       </c>
       <c r="L10" t="n">
-        <v>89.09999999999999</v>
+        <v>1872.8</v>
       </c>
       <c r="M10" t="n">
-        <v>13543.1458786</v>
+        <v>16567.3</v>
       </c>
       <c r="N10" t="n">
-        <v>10.5512485799973</v>
+        <v>157.8</v>
       </c>
       <c r="O10" t="n">
-        <v>-409.9641214</v>
+        <v>-9</v>
       </c>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="n">
-        <v>13409.15</v>
+        <v>18360.1</v>
       </c>
       <c r="R10" t="n">
-        <v>13347.46439002</v>
+        <v>16340</v>
       </c>
       <c r="S10" t="n">
-        <v>13532.59463002</v>
+        <v>16409.6</v>
       </c>
       <c r="T10" t="n">
-        <v>633.0599999999999</v>
+        <v>89</v>
       </c>
       <c r="U10" t="n">
-        <v>185.13024</v>
+        <v>26.4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>151.8067968</v>
+        <v>112.3</v>
       </c>
       <c r="C11" t="n">
-        <v>7891.95765308</v>
+        <v>9867.299999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>12.85</v>
+        <v>5.3</v>
       </c>
       <c r="E11" t="n">
-        <v>1131.803688</v>
+        <v>954</v>
       </c>
       <c r="F11" t="n">
-        <v>1134.14808906744</v>
+        <v>1475.1</v>
       </c>
       <c r="G11" t="n">
-        <v>652.9094077714</v>
+        <v>596.8</v>
       </c>
       <c r="H11" t="n">
-        <v>2348.80017949</v>
+        <v>1290.6</v>
       </c>
       <c r="I11" t="n">
-        <v>2196.99</v>
+        <v>1178.3</v>
       </c>
       <c r="J11" t="n">
-        <v>415.2848</v>
+        <v>530.3</v>
       </c>
       <c r="K11" t="n">
-        <v>181.7368</v>
+        <v>203.9</v>
       </c>
       <c r="L11" t="n">
-        <v>478.71</v>
+        <v>2189.1</v>
       </c>
       <c r="M11" t="n">
-        <v>13768.054264032</v>
+        <v>15359.6</v>
       </c>
       <c r="N11" t="n">
-        <v>11.4178773931617</v>
+        <v>441.6</v>
       </c>
       <c r="O11" t="n">
-        <v>-234.265735968</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="n">
-        <v>14288.57</v>
+        <v>17308.3</v>
       </c>
       <c r="R11" t="n">
-        <v>13604.8295898388</v>
+        <v>14805.6</v>
       </c>
       <c r="S11" t="n">
-        <v>13756.6363866388</v>
+        <v>14917.9</v>
       </c>
       <c r="T11" t="n">
-        <v>192.46</v>
+        <v>144.5</v>
       </c>
       <c r="U11" t="n">
-        <v>151.8067968</v>
+        <v>24.2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>43.8</v>
+        <v>146.5</v>
       </c>
       <c r="C12" t="n">
-        <v>8657.6</v>
+        <v>9532</v>
       </c>
       <c r="D12" t="n">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="E12" t="n">
-        <v>1287.2</v>
+        <v>946.2</v>
       </c>
       <c r="F12" t="n">
-        <v>1206.7</v>
+        <v>1497.2</v>
       </c>
       <c r="G12" t="n">
-        <v>770.7</v>
+        <v>579.8</v>
       </c>
       <c r="H12" t="n">
-        <v>2090</v>
+        <v>1026.1</v>
       </c>
       <c r="I12" t="n">
-        <v>2046.2</v>
+        <v>879.6</v>
       </c>
       <c r="J12" t="n">
-        <v>490.2</v>
+        <v>503.9</v>
       </c>
       <c r="K12" t="n">
-        <v>196.6</v>
+        <v>197.6</v>
       </c>
       <c r="L12" t="n">
-        <v>490.2</v>
+        <v>2011.2</v>
       </c>
       <c r="M12" t="n">
-        <v>14701.9</v>
+        <v>14459.7</v>
       </c>
       <c r="N12" t="n">
-        <v>2.9</v>
+        <v>177</v>
       </c>
       <c r="O12" t="n">
-        <v>77.5</v>
+        <v>-196.5</v>
       </c>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="n">
-        <v>14924.4</v>
+        <v>16529.9</v>
       </c>
       <c r="R12" t="n">
-        <v>14655.2</v>
+        <v>14136.2</v>
       </c>
       <c r="S12" t="n">
-        <v>14699</v>
+        <v>14282.7</v>
       </c>
       <c r="T12" t="n">
-        <v>190.2</v>
+        <v>137.5</v>
       </c>
       <c r="U12" t="n">
-        <v>40.1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>41.6</v>
-      </c>
-      <c r="C13" t="n">
-        <v>9485.200000000001</v>
-      </c>
-      <c r="D13" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1428.1</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1271.9</v>
-      </c>
-      <c r="G13" t="n">
-        <v>894.7</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1824.3</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1782.7</v>
-      </c>
-      <c r="J13" t="n">
-        <v>518.6</v>
-      </c>
-      <c r="K13" t="n">
-        <v>212.3</v>
-      </c>
-      <c r="L13" t="n">
-        <v>228.8</v>
-      </c>
-      <c r="M13" t="n">
-        <v>15626.2</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-8.9</v>
-      </c>
-      <c r="O13" t="n">
-        <v>-78</v>
-      </c>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="n">
-        <v>15689.7</v>
-      </c>
-      <c r="R13" t="n">
-        <v>15593.5</v>
-      </c>
-      <c r="S13" t="n">
-        <v>15635.1</v>
-      </c>
-      <c r="T13" t="n">
-        <v>243.3</v>
-      </c>
-      <c r="U13" t="n">
-        <v>39.2</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>65.40000000000001</v>
-      </c>
-      <c r="C14" t="n">
-        <v>10727</v>
-      </c>
-      <c r="D14" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1444.7</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1335.5</v>
-      </c>
-      <c r="G14" t="n">
-        <v>964.1</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1747.7</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1682.3</v>
-      </c>
-      <c r="J14" t="n">
-        <v>518</v>
-      </c>
-      <c r="K14" t="n">
-        <v>229</v>
-      </c>
-      <c r="L14" t="n">
-        <v>205.7</v>
-      </c>
-      <c r="M14" t="n">
-        <v>16966.9</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="O14" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="n">
-        <v>17063.8</v>
-      </c>
-      <c r="R14" t="n">
-        <v>16900.7</v>
-      </c>
-      <c r="S14" t="n">
-        <v>16966</v>
-      </c>
-      <c r="T14" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="U14" t="n">
-        <v>35.6</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>43.9</v>
-      </c>
-      <c r="C15" t="n">
-        <v>10920.5</v>
-      </c>
-      <c r="D15" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1339.8</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1441.5</v>
-      </c>
-      <c r="G15" t="n">
-        <v>982.5</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1675.9</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1632</v>
-      </c>
-      <c r="J15" t="n">
-        <v>557</v>
-      </c>
-      <c r="K15" t="n">
-        <v>233.5</v>
-      </c>
-      <c r="L15" t="n">
-        <v>294.4</v>
-      </c>
-      <c r="M15" t="n">
-        <v>17105.9</v>
-      </c>
-      <c r="N15" t="n">
-        <v>-44.7</v>
-      </c>
-      <c r="O15" t="n">
-        <v>89.40000000000001</v>
-      </c>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="n">
-        <v>17275.7</v>
-      </c>
-      <c r="R15" t="n">
-        <v>17106.8</v>
-      </c>
-      <c r="S15" t="n">
-        <v>17150.6</v>
-      </c>
-      <c r="T15" t="n">
-        <v>35.3</v>
-      </c>
-      <c r="U15" t="n">
-        <v>35.6</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>38.3</v>
-      </c>
-      <c r="C16" t="n">
-        <v>11042.8</v>
-      </c>
-      <c r="D16" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1268.7</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1492</v>
-      </c>
-      <c r="G16" t="n">
-        <v>984.4</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1595.3</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1557</v>
-      </c>
-      <c r="J16" t="n">
-        <v>552</v>
-      </c>
-      <c r="K16" t="n">
-        <v>230.1</v>
-      </c>
-      <c r="L16" t="n">
-        <v>423.9</v>
-      </c>
-      <c r="M16" t="n">
-        <v>17172.9</v>
-      </c>
-      <c r="N16" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="O16" t="n">
-        <v>-93.7</v>
-      </c>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="n">
-        <v>17635.3</v>
-      </c>
-      <c r="R16" t="n">
-        <v>17127</v>
-      </c>
-      <c r="S16" t="n">
-        <v>17165.3</v>
-      </c>
-      <c r="T16" t="n">
-        <v>55</v>
-      </c>
-      <c r="U16" t="n">
-        <v>25.8</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>79.90000000000001</v>
-      </c>
-      <c r="C17" t="n">
-        <v>11162.8</v>
-      </c>
-      <c r="D17" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1384.2</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1492.9</v>
-      </c>
-      <c r="G17" t="n">
-        <v>990.7</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1516.4</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1436.5</v>
-      </c>
-      <c r="J17" t="n">
-        <v>555.7</v>
-      </c>
-      <c r="K17" t="n">
-        <v>257.7</v>
-      </c>
-      <c r="L17" t="n">
-        <v>731.3</v>
-      </c>
-      <c r="M17" t="n">
-        <v>17353.6</v>
-      </c>
-      <c r="N17" t="n">
-        <v>-6.7</v>
-      </c>
-      <c r="O17" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="n">
-        <v>18007.9</v>
-      </c>
-      <c r="R17" t="n">
-        <v>17280.4</v>
-      </c>
-      <c r="S17" t="n">
-        <v>17360.3</v>
-      </c>
-      <c r="T17" t="n">
-        <v>71.5</v>
-      </c>
-      <c r="U17" t="n">
-        <v>22.4</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>102.7</v>
-      </c>
-      <c r="C18" t="n">
-        <v>11068.5</v>
-      </c>
-      <c r="D18" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="E18" t="n">
-        <v>1307.2</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1495.9</v>
-      </c>
-      <c r="G18" t="n">
-        <v>761.3</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1412.9</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1310.3</v>
-      </c>
-      <c r="J18" t="n">
-        <v>561.3</v>
-      </c>
-      <c r="K18" t="n">
-        <v>232</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1556.9</v>
-      </c>
-      <c r="M18" t="n">
-        <v>16765.2</v>
-      </c>
-      <c r="N18" t="n">
-        <v>-73.90000000000001</v>
-      </c>
-      <c r="O18" t="n">
-        <v>288.3</v>
-      </c>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="n">
-        <v>17917.7</v>
-      </c>
-      <c r="R18" t="n">
-        <v>16736.4</v>
-      </c>
-      <c r="S18" t="n">
-        <v>16839</v>
-      </c>
-      <c r="T18" t="n">
-        <v>116.1</v>
-      </c>
-      <c r="U18" t="n">
-        <v>29.2</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>194.1</v>
-      </c>
-      <c r="C19" t="n">
-        <v>11173.7</v>
-      </c>
-      <c r="D19" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1233.3</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1546.8</v>
-      </c>
-      <c r="G19" t="n">
-        <v>673</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1459.9</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1265.8</v>
-      </c>
-      <c r="J19" t="n">
-        <v>596.1</v>
-      </c>
-      <c r="K19" t="n">
-        <v>233.8</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1736.8</v>
-      </c>
-      <c r="M19" t="n">
-        <v>16994.5</v>
-      </c>
-      <c r="N19" t="n">
-        <v>78</v>
-      </c>
-      <c r="O19" t="n">
-        <v>-44.2</v>
-      </c>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="n">
-        <v>18667.9</v>
-      </c>
-      <c r="R19" t="n">
-        <v>16722.4</v>
-      </c>
-      <c r="S19" t="n">
-        <v>16916.5</v>
-      </c>
-      <c r="T19" t="n">
-        <v>107.6</v>
-      </c>
-      <c r="U19" t="n">
-        <v>23.9</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>69.59999999999999</v>
-      </c>
-      <c r="C20" t="n">
-        <v>11166.9</v>
-      </c>
-      <c r="D20" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="E20" t="n">
-        <v>1107.4</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1468.2</v>
-      </c>
-      <c r="G20" t="n">
-        <v>652.3</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1259.5</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1189.9</v>
-      </c>
-      <c r="J20" t="n">
-        <v>543.4</v>
-      </c>
-      <c r="K20" t="n">
-        <v>211.8</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1872.8</v>
-      </c>
-      <c r="M20" t="n">
-        <v>16567.3</v>
-      </c>
-      <c r="N20" t="n">
-        <v>157.8</v>
-      </c>
-      <c r="O20" t="n">
-        <v>-9</v>
-      </c>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="n">
-        <v>18360.1</v>
-      </c>
-      <c r="R20" t="n">
-        <v>16340</v>
-      </c>
-      <c r="S20" t="n">
-        <v>16409.6</v>
-      </c>
-      <c r="T20" t="n">
-        <v>89</v>
-      </c>
-      <c r="U20" t="n">
-        <v>26.4</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>112.3</v>
-      </c>
-      <c r="C21" t="n">
-        <v>9867.299999999999</v>
-      </c>
-      <c r="D21" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="E21" t="n">
-        <v>954</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1475.1</v>
-      </c>
-      <c r="G21" t="n">
-        <v>596.8</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1290.6</v>
-      </c>
-      <c r="I21" t="n">
-        <v>1178.27</v>
-      </c>
-      <c r="J21" t="n">
-        <v>530.3</v>
-      </c>
-      <c r="K21" t="n">
-        <v>203.9</v>
-      </c>
-      <c r="L21" t="n">
-        <v>2189.1</v>
-      </c>
-      <c r="M21" t="n">
-        <v>15359.6</v>
-      </c>
-      <c r="N21" t="n">
-        <v>441.65</v>
-      </c>
-      <c r="O21" t="n">
-        <v>95.90000000000001</v>
-      </c>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="n">
-        <v>17308.3</v>
-      </c>
-      <c r="R21" t="n">
-        <v>14805.62</v>
-      </c>
-      <c r="S21" t="n">
-        <v>14917.95</v>
-      </c>
-      <c r="T21" t="n">
-        <v>144.5</v>
-      </c>
-      <c r="U21" t="n">
-        <v>24.2</v>
+        <v>27.6</v>
       </c>
     </row>
   </sheetData>
